--- a/wash_P/MTN.xlsx
+++ b/wash_P/MTN.xlsx
@@ -71271,10 +71271,10 @@
         <v>0</v>
       </c>
       <c r="AMJ22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AMK22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AML22" t="n">
         <v>0</v>
